--- a/data/trans_dic/P2A_senso_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.0101807447834287</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0257963227025934</v>
+        <v>0.02579632270259339</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.01715301006048798</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01272588908959261</v>
+        <v>0.01248922363654982</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01504278187118303</v>
+        <v>0.01518872246818796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003059722715343027</v>
+        <v>0.003070040055338525</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01119966231141581</v>
+        <v>0.01169587133908397</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004767253153579351</v>
+        <v>0.005696485433047223</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01559564973309326</v>
+        <v>0.01553317007600089</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004233293501432997</v>
+        <v>0.003938962881484074</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01698752820543047</v>
+        <v>0.01775875530969957</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01169820526776459</v>
+        <v>0.0116871898836349</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0170310889081475</v>
+        <v>0.01771750411169906</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004947297656877348</v>
+        <v>0.005210043452943154</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01615207138399103</v>
+        <v>0.0168856204643681</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03625895329943898</v>
+        <v>0.03479411129205861</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03958575260957268</v>
+        <v>0.03927452257296002</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01806224184415683</v>
+        <v>0.01895290963867863</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03369514705126275</v>
+        <v>0.03374027728472877</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02204666096396882</v>
+        <v>0.02148586755317578</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04217077263028214</v>
+        <v>0.04145419739006995</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02207971133697969</v>
+        <v>0.01970802573959653</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0417157781599727</v>
+        <v>0.04188733011985825</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02509785710210189</v>
+        <v>0.02421768123755018</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0351674891533117</v>
+        <v>0.03493982565560498</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01560439315283089</v>
+        <v>0.01518392851563711</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03180097904088774</v>
+        <v>0.03266425181412393</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008073725149779408</v>
+        <v>0.00848721632776174</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008906480723402312</v>
+        <v>0.009043557957440594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004320962237513288</v>
+        <v>0.003902272950948685</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01468483395366605</v>
+        <v>0.01440598381967217</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01048213261693345</v>
+        <v>0.01044941066688543</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01249697554248113</v>
+        <v>0.01284945796459983</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006707186381059329</v>
+        <v>0.006401051327725202</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02374430007833685</v>
+        <v>0.02389226126290099</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01108408530258161</v>
+        <v>0.01093981719113727</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01277159180662309</v>
+        <v>0.01301045380959186</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006563554878030736</v>
+        <v>0.006339490200048344</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02184874742837955</v>
+        <v>0.02092040064117757</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02383637257601873</v>
+        <v>0.02458376454711691</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02610549879622717</v>
+        <v>0.02812004768107243</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0174334045828058</v>
+        <v>0.01806606812400644</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03886552678200007</v>
+        <v>0.03701604806000258</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02730138988472811</v>
+        <v>0.02696634048236693</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03194774612140854</v>
+        <v>0.03139637383232645</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02238671738659925</v>
+        <v>0.02220230730560649</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04026737270505289</v>
+        <v>0.04014087461774225</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02250551119516421</v>
+        <v>0.02314627351281644</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02531845119046142</v>
+        <v>0.02565556992766156</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01644475814200651</v>
+        <v>0.01610746572517619</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03611070884705116</v>
+        <v>0.03468728591867717</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005694269916858542</v>
+        <v>0.005315380861507193</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004073743553088712</v>
+        <v>0.005058512544620457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003482077552208253</v>
+        <v>0.003179062773482196</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02673876371387104</v>
+        <v>0.02624971631019136</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.00879816847893841</v>
+        <v>0.008512438784387153</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007771345039093566</v>
+        <v>0.006992140610125993</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002870664925073247</v>
+        <v>0.003230575143243556</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03502568739772922</v>
+        <v>0.03501206866729682</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007834755127042195</v>
+        <v>0.008205884001843243</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007925041768253663</v>
+        <v>0.007696466728764381</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004747402526809981</v>
+        <v>0.004392307369592646</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03485186185774332</v>
+        <v>0.03582003224048516</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02330598695599752</v>
+        <v>0.02476868776155925</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02259643541326858</v>
+        <v>0.02276634123478112</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02277756700120235</v>
+        <v>0.02046820568477308</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05613648350933731</v>
+        <v>0.05633361024798035</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02802425663847407</v>
+        <v>0.02656649083072914</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02817585465436362</v>
+        <v>0.02638313186890847</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01674011076822934</v>
+        <v>0.01853250187898581</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06458056043858468</v>
+        <v>0.06425660953185097</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02108753680093103</v>
+        <v>0.02185248496614916</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01982376639337198</v>
+        <v>0.02026627776910795</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01544981799839471</v>
+        <v>0.01488523621613736</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05482771565007342</v>
+        <v>0.05633030772947207</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008072053261474229</v>
+        <v>0.007135939171694126</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009212578864279059</v>
+        <v>0.009105169622076617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006393624630109792</v>
+        <v>0.006561192340747354</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01052203169055743</v>
+        <v>0.01063809651828823</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01240744723278641</v>
+        <v>0.01243304487471028</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01796653674390523</v>
+        <v>0.01704004013639589</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.005701332251711537</v>
+        <v>0.00541703713698146</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01919611813169162</v>
+        <v>0.01984823040124445</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01197902627337733</v>
+        <v>0.01167248335043935</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01571991448132279</v>
+        <v>0.01522894521423383</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007348094855748594</v>
+        <v>0.007463520886803526</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01746596043976583</v>
+        <v>0.01712483273236063</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02316423005019899</v>
+        <v>0.02340513134782979</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02710792920732983</v>
+        <v>0.02677318942045131</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02275298835963276</v>
+        <v>0.02263223455537367</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0268541695592801</v>
+        <v>0.02695241729824133</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02948660410849357</v>
+        <v>0.0301495508538985</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03965117779259437</v>
+        <v>0.03775559470428747</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01864623510356722</v>
+        <v>0.01902494140733793</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03466544729454052</v>
+        <v>0.03572319955995547</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02395147561985822</v>
+        <v>0.02343032979880623</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0292482749494334</v>
+        <v>0.02865111564939428</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01697321254314761</v>
+        <v>0.01764115591731185</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0282728530729989</v>
+        <v>0.028297312022859</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01158815509514749</v>
+        <v>0.01165436120412931</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0125718933395672</v>
+        <v>0.01246725238067391</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006997990975262458</v>
+        <v>0.00692705366627222</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01970235592698141</v>
+        <v>0.01985882504106729</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01280627484275531</v>
+        <v>0.01277823175217347</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01714892008005007</v>
+        <v>0.01714078227121765</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.007334009598550106</v>
+        <v>0.007514045091118662</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02734904724586738</v>
+        <v>0.02770159604796114</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01317702365222394</v>
+        <v>0.0132329115412512</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01590796817744232</v>
+        <v>0.01599169309993089</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.008108270407287193</v>
+        <v>0.008285745208464814</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02524895842692105</v>
+        <v>0.02522849162191677</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02029598510543221</v>
+        <v>0.02070527561807825</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02187300770635209</v>
+        <v>0.02165003313676651</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01483742541476609</v>
+        <v>0.01384535907345087</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03067287424342505</v>
+        <v>0.03083081296748346</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02153072434883496</v>
+        <v>0.02123348667878827</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02748566565721942</v>
+        <v>0.02700577716035648</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01455612697937936</v>
+        <v>0.01476010044607623</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03729762010274063</v>
+        <v>0.03808307080016007</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01953924179082834</v>
+        <v>0.01955395868376882</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02257536967603089</v>
+        <v>0.02298382892787317</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01344116120552604</v>
+        <v>0.01329757760866854</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03276450335864829</v>
+        <v>0.03261909199049699</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8832</v>
+        <v>8668</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10582</v>
+        <v>10685</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2065</v>
+        <v>2072</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7736</v>
+        <v>8078</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3282</v>
+        <v>3921</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10871</v>
+        <v>10827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2848</v>
+        <v>2650</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>12472</v>
+        <v>13038</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16171</v>
+        <v>16156</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>23852</v>
+        <v>24814</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6667</v>
+        <v>7021</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>23015</v>
+        <v>24060</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25164</v>
+        <v>24148</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27847</v>
+        <v>27628</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12188</v>
+        <v>12789</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23274</v>
+        <v>23305</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15176</v>
+        <v>14790</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29395</v>
+        <v>28896</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14856</v>
+        <v>13260</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30627</v>
+        <v>30753</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>34694</v>
+        <v>33478</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>49253</v>
+        <v>48934</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21029</v>
+        <v>20462</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>45313</v>
+        <v>46543</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7765</v>
+        <v>8163</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9066</v>
+        <v>9206</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4418</v>
+        <v>3990</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15403</v>
+        <v>15111</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10151</v>
+        <v>10119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12899</v>
+        <v>13263</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6995</v>
+        <v>6676</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25441</v>
+        <v>25600</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>21394</v>
+        <v>21116</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>26183</v>
+        <v>26673</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>13556</v>
+        <v>13093</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>46328</v>
+        <v>44359</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22926</v>
+        <v>23645</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26574</v>
+        <v>28625</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17824</v>
+        <v>18471</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>40767</v>
+        <v>38827</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26438</v>
+        <v>26114</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>32976</v>
+        <v>32407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23347</v>
+        <v>23155</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43145</v>
+        <v>43010</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>43440</v>
+        <v>44677</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>51906</v>
+        <v>52597</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>33964</v>
+        <v>33267</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>76569</v>
+        <v>73551</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3864</v>
+        <v>3607</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3086</v>
+        <v>3832</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2645</v>
+        <v>2415</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21473</v>
+        <v>21080</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6017</v>
+        <v>5821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6040</v>
+        <v>5434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2254</v>
+        <v>2536</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>28450</v>
+        <v>28439</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10674</v>
+        <v>11179</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>12163</v>
+        <v>11813</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7333</v>
+        <v>6784</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>56297</v>
+        <v>57861</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15813</v>
+        <v>16806</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17120</v>
+        <v>17248</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17301</v>
+        <v>15547</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>45082</v>
+        <v>45240</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19164</v>
+        <v>18167</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21898</v>
+        <v>20504</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13141</v>
+        <v>14548</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>52456</v>
+        <v>52193</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>28729</v>
+        <v>29771</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>30425</v>
+        <v>31105</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23863</v>
+        <v>22991</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>88565</v>
+        <v>90992</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7606</v>
+        <v>6724</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8731</v>
+        <v>8629</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5994</v>
+        <v>6152</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10417</v>
+        <v>10532</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12887</v>
+        <v>12913</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18899</v>
+        <v>17924</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5951</v>
+        <v>5654</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21481</v>
+        <v>22211</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>23728</v>
+        <v>23121</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>31434</v>
+        <v>30452</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>14559</v>
+        <v>14788</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>36838</v>
+        <v>36118</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21826</v>
+        <v>22053</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25691</v>
+        <v>25374</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21332</v>
+        <v>21219</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>26587</v>
+        <v>26685</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30625</v>
+        <v>31314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41709</v>
+        <v>39715</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19463</v>
+        <v>19858</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>38792</v>
+        <v>39976</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>47444</v>
+        <v>46412</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>58486</v>
+        <v>57292</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>33630</v>
+        <v>34953</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>59630</v>
+        <v>59682</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>37969</v>
+        <v>38186</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>43081</v>
+        <v>42723</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23754</v>
+        <v>23513</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>69604</v>
+        <v>70157</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>43275</v>
+        <v>43180</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>61021</v>
+        <v>60992</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>25996</v>
+        <v>26634</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>102202</v>
+        <v>103520</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>87703</v>
+        <v>88075</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>111119</v>
+        <v>111703</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>56262</v>
+        <v>57494</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>183553</v>
+        <v>183404</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>66501</v>
+        <v>67842</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>74954</v>
+        <v>74190</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50363</v>
+        <v>46996</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>108360</v>
+        <v>108918</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>72757</v>
+        <v>71752</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>97802</v>
+        <v>96095</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>51595</v>
+        <v>52318</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>139379</v>
+        <v>142315</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>130048</v>
+        <v>130146</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>157691</v>
+        <v>160544</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>93267</v>
+        <v>92270</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>238189</v>
+        <v>237132</v>
       </c>
     </row>
     <row r="24">
